--- a/Restaurant Database.xlsx
+++ b/Restaurant Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaunak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaunak\Documents\Restaurant Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6F757-85D3-4A5D-B5CA-313479165214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9435A49C-A2D9-446B-A6A7-E0AC56E3DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD49333F-C16E-4EC5-A19F-0E007E811CAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Customers</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>inventory_Item_id</t>
-  </si>
-  <si>
-    <t>Waiter</t>
   </si>
   <si>
     <t>Inventory Items</t>
@@ -518,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57343522-9A1A-4FF0-B973-DBB8DC0D98D8}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,17 +555,15 @@
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -587,9 +582,6 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
@@ -597,7 +589,7 @@
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -616,17 +608,14 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -639,17 +628,14 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -671,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -679,7 +665,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
